--- a/fastapi-ml/data/ShockReason.xlsx
+++ b/fastapi-ml/data/ShockReason.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GRCOMNE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-STUDY\electric-monitor-AS\fastapi-ml\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D402967A-4094-4093-A72C-1BB9E4D97E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE2CE9A-D659-4ABB-ACAA-A3572AE60B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="345" windowWidth="14475" windowHeight="11385" xr2:uid="{8724AEB6-7937-4032-A80C-50A19B6320BF}"/>
+    <workbookView xWindow="5145" yWindow="1575" windowWidth="14475" windowHeight="11385" xr2:uid="{8724AEB6-7937-4032-A80C-50A19B6320BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>충전부 직접 접촉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>낙뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,131 +425,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF937177-9F16-4B83-8BAC-93DE62431964}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1">
-        <v>149</v>
+        <v>2023</v>
       </c>
       <c r="C1">
-        <v>162</v>
+        <v>2022</v>
       </c>
       <c r="D1">
-        <v>176</v>
+        <v>2021</v>
       </c>
       <c r="E1">
-        <v>168</v>
+        <v>2020</v>
       </c>
       <c r="F1">
-        <v>248</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="F2">
-        <v>29</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="F5">
-        <v>195</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>175</v>
+      </c>
+      <c r="C6">
+        <v>160</v>
+      </c>
+      <c r="D6">
+        <v>158</v>
+      </c>
+      <c r="E6">
+        <v>148</v>
+      </c>
+      <c r="F6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>1</v>
       </c>
     </row>

--- a/fastapi-ml/data/ShockReason.xlsx
+++ b/fastapi-ml/data/ShockReason.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-STUDY\electric-monitor-AS\fastapi-ml\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE2CE9A-D659-4ABB-ACAA-A3572AE60B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340FC63F-DB74-43C0-934C-BEFE23A50BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="1575" windowWidth="14475" windowHeight="11385" xr2:uid="{8724AEB6-7937-4032-A80C-50A19B6320BF}"/>
+    <workbookView xWindow="15" yWindow="345" windowWidth="14475" windowHeight="11385" xr2:uid="{8724AEB6-7937-4032-A80C-50A19B6320BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -475,59 +475,59 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="F3">
-        <v>29</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -535,22 +535,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>175</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>195</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -574,6 +574,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F7">
+    <sortCondition descending="1" ref="E1:E7"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/fastapi-ml/data/ShockReason.xlsx
+++ b/fastapi-ml/data/ShockReason.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-STUDY\electric-monitor-AS\fastapi-ml\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340FC63F-DB74-43C0-934C-BEFE23A50BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EEBCBD-D3DD-4976-AB9C-BBE19F4E5CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="345" windowWidth="14475" windowHeight="11385" xr2:uid="{8724AEB6-7937-4032-A80C-50A19B6320BF}"/>
+    <workbookView xWindow="12240" yWindow="2805" windowWidth="14475" windowHeight="11385" xr2:uid="{8724AEB6-7937-4032-A80C-50A19B6320BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF937177-9F16-4B83-8BAC-93DE62431964}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -452,8 +452,26 @@
       <c r="F1">
         <v>2019</v>
       </c>
+      <c r="G1">
+        <v>2018</v>
+      </c>
+      <c r="H1">
+        <v>2017</v>
+      </c>
+      <c r="I1">
+        <v>2016</v>
+      </c>
+      <c r="J1">
+        <v>2015</v>
+      </c>
+      <c r="K1">
+        <v>2014</v>
+      </c>
+      <c r="L1">
+        <v>2013</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -472,8 +490,26 @@
       <c r="F2">
         <v>248</v>
       </c>
+      <c r="G2">
+        <v>263</v>
+      </c>
+      <c r="H2">
+        <v>307</v>
+      </c>
+      <c r="I2">
+        <v>324</v>
+      </c>
+      <c r="J2">
+        <v>334</v>
+      </c>
+      <c r="K2">
+        <v>348</v>
+      </c>
+      <c r="L2">
+        <v>333</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -492,8 +528,26 @@
       <c r="F3">
         <v>195</v>
       </c>
+      <c r="G3">
+        <v>185</v>
+      </c>
+      <c r="H3">
+        <v>168</v>
+      </c>
+      <c r="I3">
+        <v>171</v>
+      </c>
+      <c r="J3">
+        <v>154</v>
+      </c>
+      <c r="K3">
+        <v>143</v>
+      </c>
+      <c r="L3">
+        <v>173</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -512,8 +566,26 @@
       <c r="F4">
         <v>29</v>
       </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -532,8 +604,26 @@
       <c r="F5">
         <v>29</v>
       </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>34</v>
+      </c>
+      <c r="J5">
+        <v>44</v>
+      </c>
+      <c r="K5">
+        <v>65</v>
+      </c>
+      <c r="L5">
+        <v>89</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -552,8 +642,26 @@
       <c r="F6">
         <v>6</v>
       </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -571,6 +679,24 @@
       </c>
       <c r="F7">
         <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
